--- a/data/peak_maps_2023-06.xlsx
+++ b/data/peak_maps_2023-06.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sk/Dropbox/Science/instruments/pc-boba-fett/data_2023jun_isoGDGTs_kkeller/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sk/Dropbox/Science/instruments/pc-boba-fett/data_2025_kkeller_new_approach/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF7B4B8-60D6-D046-A196-BD8999FA2E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8D5912-2D78-AB4B-8606-A73C2A879483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="1640" windowWidth="18300" windowHeight="20580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="18300" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2921-oct" sheetId="1" r:id="rId1"/>
@@ -134,13 +134,13 @@
     <t>BP-2</t>
   </si>
   <si>
-    <t>BP-3</t>
-  </si>
-  <si>
     <t>analyte</t>
   </si>
   <si>
     <t>BP-1</t>
+  </si>
+  <si>
+    <t>BP-3 (Cren)</t>
   </si>
 </sst>
 </file>
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -951,7 +951,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F34">
         <v>1290</v>
@@ -959,10 +959,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F35">
         <v>1320</v>
@@ -973,7 +973,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F36">
         <v>1350</v>
@@ -981,10 +981,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
         <v>34</v>
-      </c>
-      <c r="B37" t="s">
-        <v>35</v>
       </c>
       <c r="F37">
         <v>1370</v>
